--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Vates\College Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Vates\College Project\monsteruniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5B1477-E6E2-4531-AC03-EB604AF00F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60277A36-82E8-4E58-90DF-C831526114C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{22898343-0476-4228-A0B7-B211C7C40EB4}"/>
   </bookViews>
@@ -311,31 +311,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +652,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +677,7 @@
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="5"/>
@@ -688,168 +687,155 @@
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -875,164 +861,160 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="7"/>
+      <c r="K14" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="7"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="7"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="15"/>
+      <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
